--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.2432825509078625</v>
+        <v>0.2452781377806629</v>
       </c>
       <c r="D2">
-        <v>0.8078162392459796</v>
+        <v>0.8085146263414069</v>
       </c>
       <c r="E2">
         <v>0.5740243893614255</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.01132530710441347</v>
+        <v>0.01045015380405306</v>
       </c>
       <c r="D3">
-        <v>0.9909652509534899</v>
+        <v>0.9917563221715491</v>
       </c>
       <c r="E3">
         <v>0.5740243893614255</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.34392859550455</v>
+        <v>2.0134224619898</v>
       </c>
       <c r="D4">
-        <v>0.01919788949111378</v>
+        <v>0.0564633738587268</v>
       </c>
       <c r="E4">
         <v>0.5740243893614255</v>
@@ -505,7 +505,7 @@
         <v>0.5341526541044769</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.719354177330249</v>
+        <v>1.884882997438161</v>
       </c>
       <c r="D5">
-        <v>0.08573420698644396</v>
+        <v>0.07272435716539905</v>
       </c>
       <c r="E5">
         <v>0.5740243893614255</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2126491968807232</v>
+        <v>-0.2091065006143031</v>
       </c>
       <c r="D6">
-        <v>0.8316264089290728</v>
+        <v>0.8362892009256524</v>
       </c>
       <c r="E6">
         <v>0.5697639054960452</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.083178664666921</v>
+        <v>2.36135410837024</v>
       </c>
       <c r="D7">
-        <v>0.03738591659650981</v>
+        <v>0.02748074083366503</v>
       </c>
       <c r="E7">
         <v>0.5697639054960452</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.383654584033644</v>
+        <v>1.787274704295283</v>
       </c>
       <c r="D8">
-        <v>0.1666481662170476</v>
+        <v>0.08767975712171272</v>
       </c>
       <c r="E8">
         <v>0.5697639054960452</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.265228623638947</v>
+        <v>2.090703067860132</v>
       </c>
       <c r="D9">
-        <v>0.0236255908757883</v>
+        <v>0.04832252090076539</v>
       </c>
       <c r="E9">
         <v>0.5738236231914267</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.77897424582561</v>
+        <v>2.830511613299944</v>
       </c>
       <c r="D10">
-        <v>0.0754248629544223</v>
+        <v>0.009735881936968838</v>
       </c>
       <c r="E10">
         <v>0.5738236231914267</v>
@@ -661,7 +661,7 @@
         <v>0.5446101027211205</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.6122398942504238</v>
+        <v>-0.7314275095761226</v>
       </c>
       <c r="D11">
-        <v>0.5404619518637475</v>
+        <v>0.4722376660722789</v>
       </c>
       <c r="E11">
         <v>0.5341526541044769</v>
